--- a/Desglose.xlsx
+++ b/Desglose.xlsx
@@ -359,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D15" sqref="D15:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,22 +452,6 @@
         <v>20616.36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D15">
-        <v>2145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <v>2038.91</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17">
-        <f>D15-D16</f>
-        <v>106.08999999999992</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Desglose.xlsx
+++ b/Desglose.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Desglose de ingresos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>

--- a/Desglose.xlsx
+++ b/Desglose.xlsx
@@ -359,15 +359,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D18"/>
+      <selection activeCell="C9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -452,6 +452,21 @@
         <v>20616.36</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2038.91</v>
+      </c>
+      <c r="C9">
+        <v>7865.64</v>
+      </c>
+      <c r="E9">
+        <v>7865.64</v>
+      </c>
+      <c r="G9">
+        <f>SUM(A9:F9)</f>
+        <v>17770.190000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Desglose.xlsx
+++ b/Desglose.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Desglose de ingresos" sheetId="1" r:id="rId1"/>
+    <sheet name="Desglose de ingresos 15-31 Ener" sheetId="1" r:id="rId1"/>
+    <sheet name="Desglose de ingresos 01-15 Feb" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>sueldo</t>
   </si>
@@ -48,7 +49,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,13 +85,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -362,109 +376,310 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="A9:C9"/>
+      <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>149.47</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>7865.64</v>
       </c>
-      <c r="E2">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
         <v>7865.64</v>
       </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2145</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1183.1099999999999</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>1183.1099999999999</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>59.15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>111.99</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>53.25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <f>SUM(A2:A6)</f>
         <v>2518.8599999999997</v>
       </c>
-      <c r="C7">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
         <f>SUM(C2:C6)</f>
         <v>9048.75</v>
       </c>
-      <c r="E7">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
         <f>SUM(E2:E6)</f>
         <v>9048.75</v>
       </c>
-      <c r="G7">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
         <f>SUM(A7:F7)</f>
         <v>20616.36</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>2038.91</v>
       </c>
-      <c r="C9">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
         <v>7865.64</v>
       </c>
-      <c r="E9">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
         <v>7865.64</v>
       </c>
-      <c r="G9">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
         <f>SUM(A9:F9)</f>
         <v>17770.190000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>149.47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7826.98</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>7826.98</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2145</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1221.77</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1221.77</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>65.62</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>111.99</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>53.99</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>SUM(A2:A6)</f>
+        <v>2526.0699999999993</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <f>SUM(C2:C6)</f>
+        <v>9048.75</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <f>SUM(E2:E6)</f>
+        <v>9048.75</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <f>SUM(A7:F7)</f>
+        <v>20623.57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2103</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>7826.98</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>7826.98</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <f>SUM(A9:F9)</f>
+        <v>17756.96</v>
       </c>
     </row>
   </sheetData>

--- a/Desglose.xlsx
+++ b/Desglose.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Desglose de ingresos 15-31 Ener" sheetId="1" r:id="rId1"/>
     <sheet name="Desglose de ingresos 01-15 Feb" sheetId="2" r:id="rId2"/>
+    <sheet name="Desglose de ingresos 15-29 Feb" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
   <si>
     <t>sueldo</t>
   </si>
@@ -375,8 +376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,4 +686,162 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>149.47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7846.06</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>7846.06</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2145</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1202.69</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1202.69</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>71.150000000000006</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>53.99</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>53.99</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>SUM(A2:A6)</f>
+        <v>2473.5999999999995</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <f>SUM(C2:C6)</f>
+        <v>9048.75</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <f>SUM(E2:E6)</f>
+        <v>9048.75</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <f>SUM(A7:F7)</f>
+        <v>20571.099999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2116.0100000000002</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>7846.06</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>7846.06</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <f>SUM(A9:F9)</f>
+        <v>17808.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Desglose.xlsx
+++ b/Desglose.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Desglose de ingresos 15-31 Ener" sheetId="1" r:id="rId1"/>
     <sheet name="Desglose de ingresos 01-15 Feb" sheetId="2" r:id="rId2"/>
     <sheet name="Desglose de ingresos 15-29 Feb" sheetId="3" r:id="rId3"/>
+    <sheet name="Desglose de ingresos 01-15 Mar" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="6">
   <si>
     <t>sueldo</t>
   </si>
@@ -692,7 +693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -844,4 +845,160 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>149.47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7826.98</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>7826.98</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2145</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1221.77</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1221.77</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>65.62</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>53.99</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>SUM(A2:A6)</f>
+        <v>2414.0799999999995</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <f>SUM(C2:C6)</f>
+        <v>9048.75</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <f>SUM(E2:E6)</f>
+        <v>9048.75</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <f>SUM(A7:F7)</f>
+        <v>20511.580000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2157.37</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>7826.98</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>7826.98</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <f>SUM(A9:F9)</f>
+        <v>17811.329999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Desglose.xlsx
+++ b/Desglose.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Desglose de ingresos 15-31 Ener" sheetId="1" r:id="rId1"/>
     <sheet name="Desglose de ingresos 01-15 Feb" sheetId="2" r:id="rId2"/>
     <sheet name="Desglose de ingresos 15-29 Feb" sheetId="3" r:id="rId3"/>
     <sheet name="Desglose de ingresos 01-15 Mar" sheetId="4" r:id="rId4"/>
+    <sheet name="Desglose de ingresos 16-31 Mar" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="7">
   <si>
     <t>sueldo</t>
   </si>
@@ -45,6 +46,9 @@
   </si>
   <si>
     <t>ispt</t>
+  </si>
+  <si>
+    <t>tengo actual</t>
   </si>
 </sst>
 </file>
@@ -91,9 +95,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -851,7 +856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1001,4 +1006,174 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>149.47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7846.06</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>7846.06</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2145</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1202.69</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1202.69</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>71.150000000000006</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>53.25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>SUM(A2:A6)</f>
+        <v>2418.87</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <f>SUM(C2:C6)</f>
+        <v>9048.75</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <f>SUM(E2:E6)</f>
+        <v>9048.75</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <f>SUM(A7:F7)</f>
+        <v>20516.37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2162.9</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>7846.06</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>7846.06</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <f>SUM(A9:F9)</f>
+        <v>17855.02</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>8554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="2">
+        <f>G9+I10</f>
+        <v>26409.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Desglose.xlsx
+++ b/Desglose.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Desglose de ingresos 15-31 Ener" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Desglose de ingresos 15-29 Feb" sheetId="3" r:id="rId3"/>
     <sheet name="Desglose de ingresos 01-15 Mar" sheetId="4" r:id="rId4"/>
     <sheet name="Desglose de ingresos 16-31 Mar" sheetId="5" r:id="rId5"/>
+    <sheet name="Desglose de ingresos 01-15 Abr" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="9">
   <si>
     <t>sueldo</t>
   </si>
@@ -49,6 +50,12 @@
   </si>
   <si>
     <t>tengo actual</t>
+  </si>
+  <si>
+    <t>dep1</t>
+  </si>
+  <si>
+    <t>dep2</t>
   </si>
 </sst>
 </file>
@@ -1012,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,4 +1183,62 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2157.37</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
+        <v>7826.98</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>7826.98</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <f>SUM(A2:F2)</f>
+        <v>17811.329999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Desglose.xlsx
+++ b/Desglose.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Desglose de ingresos 15-31 Ener" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Desglose de ingresos 01-15 Mar" sheetId="4" r:id="rId4"/>
     <sheet name="Desglose de ingresos 16-31 Mar" sheetId="5" r:id="rId5"/>
     <sheet name="Desglose de ingresos 01-15 Abr" sheetId="6" r:id="rId6"/>
+    <sheet name="Desglose de ingresos 16-30 Abri" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="9">
   <si>
     <t>sueldo</t>
   </si>
@@ -1189,7 +1190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -1241,4 +1242,165 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>149.47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7846.06</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>7846.06</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2145</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1202.69</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1202.69</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>71.150000000000006</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>53.99</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>53.25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>SUM(A2:A6)</f>
+        <v>2472.8599999999997</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <f>SUM(C2:C6)</f>
+        <v>9048.75</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <f>SUM(E2:E6)</f>
+        <v>9048.75</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <f>SUM(A7:F7)</f>
+        <v>20570.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2108.91</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>7846.06</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>7846.06</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <f>SUM(A9:F9)</f>
+        <v>17801.030000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Desglose.xlsx
+++ b/Desglose.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Desglose de ingresos 15-31 Ener" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Desglose de ingresos 16-31 Mar" sheetId="5" r:id="rId5"/>
     <sheet name="Desglose de ingresos 01-15 Abr" sheetId="6" r:id="rId6"/>
     <sheet name="Desglose de ingresos 16-30 Abri" sheetId="7" r:id="rId7"/>
+    <sheet name="Desglose de ingresos 1-15 May" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="9">
   <si>
     <t>sueldo</t>
   </si>
@@ -1248,7 +1249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1403,4 +1404,166 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>149.47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7826.98</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>7826.98</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2145</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1221.77</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1221.77</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>65.62</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>53.99</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>53.25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>SUM(A2:A6)</f>
+        <v>2467.3299999999995</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <f>SUM(C2:C6)</f>
+        <v>9048.75</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <f>SUM(E2:E6)</f>
+        <v>9048.75</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <f>SUM(A7:F7)</f>
+        <v>20564.830000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2157.37</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>7826.98</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>7846.06</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <f>SUM(A9:F9)</f>
+        <v>17830.41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Desglose.xlsx
+++ b/Desglose.xlsx
@@ -1411,7 +1411,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
-        <v>7846.06</v>
+        <v>7826.98</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
         <f>SUM(A9:F9)</f>
-        <v>17830.41</v>
+        <v>17811.329999999998</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">

--- a/Desglose.xlsx
+++ b/Desglose.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Desglose de ingresos 15-31 Ener" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Desglose de ingresos 01-15 Abr" sheetId="6" r:id="rId6"/>
     <sheet name="Desglose de ingresos 16-30 Abri" sheetId="7" r:id="rId7"/>
     <sheet name="Desglose de ingresos 1-15 May" sheetId="8" r:id="rId8"/>
+    <sheet name="Desglose de ingresos 16-30 Mayo" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="9">
   <si>
     <t>sueldo</t>
   </si>
@@ -1410,6 +1411,168 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>149.47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7826.98</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>7826.98</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2145</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1221.77</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1221.77</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>65.62</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>53.99</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>53.25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>SUM(A2:A6)</f>
+        <v>2467.3299999999995</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <f>SUM(C2:C6)</f>
+        <v>9048.75</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <f>SUM(E2:E6)</f>
+        <v>9048.75</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <f>SUM(A7:F7)</f>
+        <v>20564.830000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2157.37</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>7826.98</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>7826.98</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <f>SUM(A9:F9)</f>
+        <v>17811.329999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
@@ -1442,11 +1605,11 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>7826.98</v>
+        <v>7846.06</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
-        <v>7826.98</v>
+        <v>7846.06</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1459,13 +1622,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>1221.77</v>
+        <v>1202.69</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1">
-        <v>1221.77</v>
+        <v>1202.69</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
@@ -1474,7 +1637,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>65.62</v>
+        <v>71.150000000000006</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -1486,9 +1649,7 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>53.99</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1514,7 +1675,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>SUM(A2:A6)</f>
-        <v>2467.3299999999995</v>
+        <v>2418.87</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
@@ -1529,7 +1690,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1">
         <f>SUM(A7:F7)</f>
-        <v>20564.830000000002</v>
+        <v>20516.37</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1543,20 +1704,20 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2157.37</v>
+        <v>2162.9</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
-        <v>7826.98</v>
+        <v>7846.06</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
-        <v>7826.98</v>
+        <v>7846.06</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
         <f>SUM(A9:F9)</f>
-        <v>17811.329999999998</v>
+        <v>17855.02</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">

--- a/Desglose.xlsx
+++ b/Desglose.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Desglose de ingresos 15-31 Ener" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Desglose de ingresos 16-30 Abri" sheetId="7" r:id="rId7"/>
     <sheet name="Desglose de ingresos 1-15 May" sheetId="8" r:id="rId8"/>
     <sheet name="Desglose de ingresos 16-30 Mayo" sheetId="9" r:id="rId9"/>
+    <sheet name="Desglose de ingresos 01-15 Jun" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="9">
   <si>
     <t>sueldo</t>
   </si>
@@ -546,6 +547,166 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>149.47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7826.98</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>7826.98</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2145</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1221.77</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1221.77</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>65.62</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>53.25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>SUM(A2:A6)</f>
+        <v>2413.3399999999997</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <f>SUM(C2:C6)</f>
+        <v>9048.75</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <f>SUM(E2:E6)</f>
+        <v>9048.75</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <f>SUM(A7:F7)</f>
+        <v>20510.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2157.37</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>7826.98</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>7826.98</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <f>SUM(A9:F9)</f>
+        <v>17811.329999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
@@ -1573,7 +1734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/Desglose.xlsx
+++ b/Desglose.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Desglose de ingresos 15-31 Ener" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Desglose de ingresos 1-15 May" sheetId="8" r:id="rId8"/>
     <sheet name="Desglose de ingresos 16-30 Mayo" sheetId="9" r:id="rId9"/>
     <sheet name="Desglose de ingresos 01-15 Jun" sheetId="10" r:id="rId10"/>
+    <sheet name="Desglose de ingresos 16-30  Jun" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="9">
   <si>
     <t>sueldo</t>
   </si>
@@ -551,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -696,6 +697,172 @@
       <c r="G9" s="1">
         <f>SUM(A9:F9)</f>
         <v>17811.329999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="A9:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>149.47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7826.98</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>7826.98</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2145</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1221.77</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1221.77</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>65.62</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>53.25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>SUM(A2:A6)</f>
+        <v>2413.3399999999997</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <f>SUM(C2:C6)</f>
+        <v>9048.75</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <f>SUM(E2:E6)</f>
+        <v>9048.75</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <f>SUM(A7:F7)</f>
+        <v>20510.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2147.91</v>
+      </c>
+      <c r="C10">
+        <v>7846.06</v>
+      </c>
+      <c r="E10">
+        <v>7846.06</v>
+      </c>
+      <c r="G10" s="1">
+        <f>SUM(A10:F10)</f>
+        <v>17840.030000000002</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
